--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.6712797635593</v>
+        <v>171.5003376812718</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.1550921201407</v>
+        <v>234.6543280763222</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.4799394687422</v>
+        <v>212.2592483442038</v>
       </c>
       <c r="AD2" t="n">
-        <v>150671.2797635593</v>
+        <v>171500.3376812717</v>
       </c>
       <c r="AE2" t="n">
-        <v>206155.0921201407</v>
+        <v>234654.3280763222</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.027997421720126e-06</v>
+        <v>6.809529495347909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.030381944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>186479.9394687422</v>
+        <v>212259.2483442038</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.55250119995547</v>
+        <v>103.2108774085246</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.95197410105</v>
+        <v>141.2176758128363</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.1719962219661</v>
+        <v>127.7400590335501</v>
       </c>
       <c r="AD3" t="n">
-        <v>82552.50119995547</v>
+        <v>103210.8774085246</v>
       </c>
       <c r="AE3" t="n">
-        <v>112951.97410105</v>
+        <v>141217.6758128363</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.031539136816602e-06</v>
+        <v>1.019661617284712e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>102171.9962219661</v>
+        <v>127740.0590335501</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.98654967315032</v>
+        <v>84.40112338628207</v>
       </c>
       <c r="AB4" t="n">
-        <v>101.2316613189708</v>
+        <v>115.4813405318357</v>
       </c>
       <c r="AC4" t="n">
-        <v>91.57025364224255</v>
+        <v>104.4599634705866</v>
       </c>
       <c r="AD4" t="n">
-        <v>73986.54967315032</v>
+        <v>84401.12338628207</v>
       </c>
       <c r="AE4" t="n">
-        <v>101231.6613189708</v>
+        <v>115481.3405318357</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.634403615794093e-06</v>
+        <v>1.121578848640378e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.053385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>91570.25364224255</v>
+        <v>104459.9634705866</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>74.14848608858345</v>
+        <v>84.56305980171517</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.4532298666967</v>
+        <v>115.7029090795616</v>
       </c>
       <c r="AC5" t="n">
-        <v>91.77067599874698</v>
+        <v>104.660385827091</v>
       </c>
       <c r="AD5" t="n">
-        <v>74148.48608858345</v>
+        <v>84563.05980171516</v>
       </c>
       <c r="AE5" t="n">
-        <v>101453.2298666967</v>
+        <v>115702.9090795616</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.633750053558868e-06</v>
+        <v>1.121468360701786e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.053385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>91770.67599874698</v>
+        <v>104660.385827091</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.4584514772588</v>
+        <v>128.5543358189582</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.3976381603037</v>
+        <v>175.8937136844494</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.234775851718</v>
+        <v>159.1066645188323</v>
       </c>
       <c r="AD2" t="n">
-        <v>108458.4514772588</v>
+        <v>128554.3358189582</v>
       </c>
       <c r="AE2" t="n">
-        <v>148397.6381603037</v>
+        <v>175893.7136844494</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.986824305057374e-06</v>
+        <v>8.636137487396491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.203559027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>134234.7758517179</v>
+        <v>159106.6645188323</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.1603441731443</v>
+        <v>80.25100152555535</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.99647815359181</v>
+        <v>109.8029607115377</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.83470901053998</v>
+        <v>99.32352025067983</v>
       </c>
       <c r="AD3" t="n">
-        <v>70160.3441731443</v>
+        <v>80251.00152555536</v>
       </c>
       <c r="AE3" t="n">
-        <v>95996.47815359182</v>
+        <v>109802.9607115377</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.837119538773243e-06</v>
+        <v>1.184046213433447e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.06640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>86834.70901053998</v>
+        <v>99323.52025067984</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.34649982378146</v>
+        <v>80.4371571761925</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.25118452740111</v>
+        <v>110.057667085347</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.06510656551565</v>
+        <v>99.55391780565552</v>
       </c>
       <c r="AD4" t="n">
-        <v>70346.49982378146</v>
+        <v>80437.1571761925</v>
       </c>
       <c r="AE4" t="n">
-        <v>96251.18452740111</v>
+        <v>110057.667085347</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.831710730865529e-06</v>
+        <v>1.183109520943868e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.068576388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>87065.10656551564</v>
+        <v>99553.91780565551</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.19631738976521</v>
+        <v>81.25645641460349</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.46798947739892</v>
+        <v>111.1786684482718</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.21560592028204</v>
+        <v>100.5679323718384</v>
       </c>
       <c r="AD2" t="n">
-        <v>63196.31738976522</v>
+        <v>81256.4564146035</v>
       </c>
       <c r="AE2" t="n">
-        <v>86467.98947739892</v>
+        <v>111178.6684482718</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.865961568380189e-06</v>
+        <v>1.299187677171963e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.407118055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>78215.60592028205</v>
+        <v>100567.9323718384</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.99173173247961</v>
+        <v>88.81440108983207</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.76577517361861</v>
+        <v>121.5197817859009</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.62602399918167</v>
+        <v>109.9221043663712</v>
       </c>
       <c r="AD2" t="n">
-        <v>69991.7317324796</v>
+        <v>88814.40108983207</v>
       </c>
       <c r="AE2" t="n">
-        <v>95765.7751736186</v>
+        <v>121519.7817859009</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.503903431894214e-06</v>
+        <v>1.184869956911382e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.439670138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>86626.02399918166</v>
+        <v>109922.1043663712</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.36572014083096</v>
+        <v>74.86244042835433</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.43626202870027</v>
+        <v>102.4300936918132</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.90059070528486</v>
+        <v>92.6543093114317</v>
       </c>
       <c r="AD3" t="n">
-        <v>65365.72014083096</v>
+        <v>74862.44042835433</v>
       </c>
       <c r="AE3" t="n">
-        <v>89436.26202870026</v>
+        <v>102430.0936918132</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.97653966099699e-06</v>
+        <v>1.270974013386996e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.207465277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>80900.59070528485</v>
+        <v>92654.3093114317</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.24861444964456</v>
+        <v>79.85391438377896</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.17130050502357</v>
+        <v>109.2596485659112</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.04267112351538</v>
+        <v>98.83206105368838</v>
       </c>
       <c r="AD2" t="n">
-        <v>62248.61444964456</v>
+        <v>79853.91438377896</v>
       </c>
       <c r="AE2" t="n">
-        <v>85171.30050502357</v>
+        <v>109259.6485659112</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.614414505836238e-06</v>
+        <v>1.296212126399189e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>77042.67112351538</v>
+        <v>98832.06105368838</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.1804315376795</v>
+        <v>135.4465931716908</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.5949478317974</v>
+        <v>185.324004259388</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.5543071966723</v>
+        <v>167.6369413967977</v>
       </c>
       <c r="AD2" t="n">
-        <v>115180.4315376795</v>
+        <v>135446.5931716908</v>
       </c>
       <c r="AE2" t="n">
-        <v>157594.9478317974</v>
+        <v>185324.004259388</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.736329540236552e-06</v>
+        <v>8.148765965506209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.385850694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>142554.3071966723</v>
+        <v>167636.9413967977</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.88547650610425</v>
+        <v>82.06127250467127</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.35688031901358</v>
+        <v>112.2798533286819</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.9698377061399</v>
+        <v>101.5640217127853</v>
       </c>
       <c r="AD3" t="n">
-        <v>71885.47650610426</v>
+        <v>82061.27250467126</v>
       </c>
       <c r="AE3" t="n">
-        <v>98356.88031901358</v>
+        <v>112279.8533286819</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.731863234405172e-06</v>
+        <v>1.158204418483594e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.0859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>88969.83770613989</v>
+        <v>101564.0217127853</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.88208778457864</v>
+        <v>82.05788378314561</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.35224372072238</v>
+        <v>112.2752167303907</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.96564361828207</v>
+        <v>101.5598276249275</v>
       </c>
       <c r="AD4" t="n">
-        <v>71882.08778457865</v>
+        <v>82057.88378314562</v>
       </c>
       <c r="AE4" t="n">
-        <v>98352.24372072238</v>
+        <v>112275.2167303907</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.722961438858468e-06</v>
+        <v>1.15667288128867e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.090277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>88965.64361828208</v>
+        <v>101559.8276249274</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.52665408984948</v>
+        <v>79.7616050556918</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.55172660699496</v>
+        <v>109.1333468708223</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.38678989224613</v>
+        <v>98.71781341511316</v>
       </c>
       <c r="AD2" t="n">
-        <v>62526.65408984948</v>
+        <v>79761.60505569181</v>
       </c>
       <c r="AE2" t="n">
-        <v>85551.72660699495</v>
+        <v>109133.3468708222</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.321748245185579e-06</v>
+        <v>1.267295821800287e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.932291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>77386.78989224613</v>
+        <v>98717.81341511315</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.90936187752257</v>
+        <v>98.53786536615222</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.9672701561362</v>
+        <v>134.8238545777242</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.66302542547744</v>
+        <v>121.9564551233306</v>
       </c>
       <c r="AD2" t="n">
-        <v>78909.36187752258</v>
+        <v>98537.86536615221</v>
       </c>
       <c r="AE2" t="n">
-        <v>107967.2701561362</v>
+        <v>134823.8545777242</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.963338124173382e-06</v>
+        <v>1.056151493507995e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.621961805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>97663.02542547745</v>
+        <v>121956.4551233306</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.8389816703688</v>
+        <v>77.65332292323467</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.82028756601017</v>
+        <v>106.2487022463525</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.96164959482462</v>
+        <v>96.10847522497774</v>
       </c>
       <c r="AD3" t="n">
-        <v>67838.9816703688</v>
+        <v>77653.32292323466</v>
       </c>
       <c r="AE3" t="n">
-        <v>92820.28756601017</v>
+        <v>106248.7022463525</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.920159084772916e-06</v>
+        <v>1.225611595470104e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.120659722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>83961.64959482462</v>
+        <v>96108.47522497774</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.9044180376588</v>
+        <v>121.8235500792892</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.4301204646989</v>
+        <v>166.6843556941292</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.1231054589887</v>
+        <v>150.7762347296902</v>
       </c>
       <c r="AD2" t="n">
-        <v>101904.4180376588</v>
+        <v>121823.5500792892</v>
       </c>
       <c r="AE2" t="n">
-        <v>139430.1204646989</v>
+        <v>166684.3556941292</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.263128863060456e-06</v>
+        <v>9.178437164952678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.021267361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>126123.1054589887</v>
+        <v>150776.2347296902</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.51247290636115</v>
+        <v>79.51475410873772</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.11003210431649</v>
+        <v>108.7955945149046</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.03286412807235</v>
+        <v>98.41229567000582</v>
       </c>
       <c r="AD3" t="n">
-        <v>69512.47290636116</v>
+        <v>79514.75410873772</v>
       </c>
       <c r="AE3" t="n">
-        <v>95110.03210431649</v>
+        <v>108795.5945149046</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.845704393847136e-06</v>
+        <v>1.193831070140846e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.090277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>86032.86412807235</v>
+        <v>98412.29567000581</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.43431476985943</v>
+        <v>79.43659597223598</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.00309269386123</v>
+        <v>108.6886551044494</v>
       </c>
       <c r="AC4" t="n">
-        <v>85.93613086486052</v>
+        <v>98.31556240679396</v>
       </c>
       <c r="AD4" t="n">
-        <v>69434.31476985943</v>
+        <v>79436.59597223598</v>
       </c>
       <c r="AE4" t="n">
-        <v>95003.09269386124</v>
+        <v>108688.6551044494</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.871152746600223e-06</v>
+        <v>1.198269040647993e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.079427083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>85936.13086486052</v>
+        <v>98315.56240679396</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.4639930795501</v>
+        <v>161.3909281965261</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.5065909965223</v>
+        <v>220.8221880236306</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.4701724874382</v>
+        <v>199.7472283246061</v>
       </c>
       <c r="AD2" t="n">
-        <v>130463.9930795501</v>
+        <v>161390.9281965261</v>
       </c>
       <c r="AE2" t="n">
-        <v>178506.5909965223</v>
+        <v>220822.1880236306</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.267338781057303e-06</v>
+        <v>7.254193104036048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.78515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>161470.1724874382</v>
+        <v>199747.2283246061</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.24788976107484</v>
+        <v>89.58540459347509</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.4304589412083</v>
+        <v>122.5747027938587</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.08200812299201</v>
+        <v>110.8763451939208</v>
       </c>
       <c r="AD3" t="n">
-        <v>79247.88976107484</v>
+        <v>89585.40459347509</v>
       </c>
       <c r="AE3" t="n">
-        <v>108430.4589412083</v>
+        <v>122574.7027938587</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.230429437477792e-06</v>
+        <v>1.059131711341099e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.279079861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>98082.008122992</v>
+        <v>110876.3451939208</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.30318396610036</v>
+        <v>83.64069879850061</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.2966502106182</v>
+        <v>114.4408940632685</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.72447868177451</v>
+        <v>103.5188157527033</v>
       </c>
       <c r="AD4" t="n">
-        <v>73303.18396610036</v>
+        <v>83640.69879850061</v>
       </c>
       <c r="AE4" t="n">
-        <v>100296.6502106182</v>
+        <v>114440.8940632685</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.66174658970825e-06</v>
+        <v>1.132452768606382e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.06640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>90724.47868177452</v>
+        <v>103518.8157527033</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.32455661663536</v>
+        <v>90.37025713835089</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.5894049802036</v>
+        <v>123.6485726710078</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.27560913650727</v>
+        <v>111.847726437181</v>
       </c>
       <c r="AD2" t="n">
-        <v>71324.55661663537</v>
+        <v>90370.25713835089</v>
       </c>
       <c r="AE2" t="n">
-        <v>97589.4049802036</v>
+        <v>123648.5726710078</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.466692272805457e-06</v>
+        <v>1.166097644555563e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.415798611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>88275.60913650726</v>
+        <v>111847.726437181</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.23778809087345</v>
+        <v>75.84602396057836</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.62946387087051</v>
+        <v>103.7758760732444</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.97991503830801</v>
+        <v>93.87165211119695</v>
       </c>
       <c r="AD3" t="n">
-        <v>66237.78809087345</v>
+        <v>75846.02396057836</v>
       </c>
       <c r="AE3" t="n">
-        <v>90629.4638708705</v>
+        <v>103775.8760732444</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.960292489113057e-06</v>
+        <v>1.255105444108502e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.174913194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>81979.91503830801</v>
+        <v>93871.65211119695</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.60755171352555</v>
+        <v>81.94040051188558</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.03065842154548</v>
+        <v>112.1144709356567</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.72457453011026</v>
+        <v>101.4144231832346</v>
       </c>
       <c r="AD2" t="n">
-        <v>63607.55171352554</v>
+        <v>81940.40051188559</v>
       </c>
       <c r="AE2" t="n">
-        <v>87030.65842154548</v>
+        <v>112114.4709356567</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.954098326574147e-06</v>
+        <v>1.29741246503587e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.309461805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>78724.57453011026</v>
+        <v>101414.4231832346</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.67052780105738</v>
+        <v>80.60417309404255</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.74858096592969</v>
+        <v>110.2861856323716</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.56485674745103</v>
+        <v>99.76062686327994</v>
       </c>
       <c r="AD2" t="n">
-        <v>62670.52780105738</v>
+        <v>80604.17309404255</v>
       </c>
       <c r="AE2" t="n">
-        <v>85748.58096592969</v>
+        <v>110286.1856323716</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.766586417330906e-06</v>
+        <v>1.301239660996388e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.517795138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>77564.85674745103</v>
+        <v>99760.62686327993</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.17904905025189</v>
+        <v>88.89793120443635</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.75855922542274</v>
+        <v>121.6340713737909</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.33318094148134</v>
+        <v>110.0254863163995</v>
       </c>
       <c r="AD2" t="n">
-        <v>72179.0490502519</v>
+        <v>88897.93120443635</v>
       </c>
       <c r="AE2" t="n">
-        <v>98758.55922542274</v>
+        <v>121634.0713737909</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.825891728521907e-06</v>
+        <v>1.20164803255821e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.385850694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>89333.18094148135</v>
+        <v>110025.4863163995</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.55896723278192</v>
+        <v>104.3794191731564</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.6973094461958</v>
+        <v>142.816526207629</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.6553206148745</v>
+        <v>129.1863173906649</v>
       </c>
       <c r="AD2" t="n">
-        <v>84558.96723278193</v>
+        <v>104379.4191731564</v>
       </c>
       <c r="AE2" t="n">
-        <v>115697.3094461958</v>
+        <v>142816.526207629</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.633651067538884e-06</v>
+        <v>9.898102690661983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.793402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>104655.3206148745</v>
+        <v>129186.3173906649</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.66952667055472</v>
+        <v>78.57984214929301</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.95667587632337</v>
+        <v>107.5164067265883</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.98958259973291</v>
+        <v>97.25519176885469</v>
       </c>
       <c r="AD3" t="n">
-        <v>68669.52667055471</v>
+        <v>78579.84214929302</v>
       </c>
       <c r="AE3" t="n">
-        <v>93956.67587632337</v>
+        <v>107516.4067265883</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.886076851991401e-06</v>
+        <v>1.209856538853359e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.103298611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>84989.58259973291</v>
+        <v>97255.19176885468</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.7946095038661</v>
+        <v>143.3957639032685</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.0130020389529</v>
+        <v>196.2004103469893</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.9780769321312</v>
+        <v>177.4753185525336</v>
       </c>
       <c r="AD2" t="n">
-        <v>122794.6095038661</v>
+        <v>143395.7639032686</v>
       </c>
       <c r="AE2" t="n">
-        <v>168013.0020389529</v>
+        <v>196200.4103469893</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.485791692735039e-06</v>
+        <v>7.670203887204865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.58984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>151978.0769321312</v>
+        <v>177475.3185525336</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.88760055851745</v>
+        <v>86.14559683948391</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.8327630087747</v>
+        <v>117.8682060712424</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.92310983744156</v>
+        <v>106.6190299128999</v>
       </c>
       <c r="AD3" t="n">
-        <v>75887.60055851744</v>
+        <v>86145.59683948391</v>
       </c>
       <c r="AE3" t="n">
-        <v>103832.7630087747</v>
+        <v>117868.2060712424</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.445472770915558e-06</v>
+        <v>1.102104013933974e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.194444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>93923.10983744156</v>
+        <v>106619.0299128999</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.99790523071368</v>
+        <v>82.25590151168016</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.51071026002938</v>
+        <v>112.5461533224971</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.10898633348687</v>
+        <v>101.8049064089452</v>
       </c>
       <c r="AD4" t="n">
-        <v>71997.90523071369</v>
+        <v>82255.90151168016</v>
       </c>
       <c r="AE4" t="n">
-        <v>98510.71026002939</v>
+        <v>112546.1533224971</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.750276200440317e-06</v>
+        <v>1.154222003580273e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.051215277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>89108.98633348687</v>
+        <v>101804.9064089452</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.3849948752803</v>
+        <v>107.6281880749295</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.0910286746577</v>
+        <v>147.2616351446012</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.2023410257423</v>
+        <v>133.2071913694434</v>
       </c>
       <c r="AD2" t="n">
-        <v>83384.9948752803</v>
+        <v>107628.1880749295</v>
       </c>
       <c r="AE2" t="n">
-        <v>114091.0286746577</v>
+        <v>147261.6351446012</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.939578412935427e-06</v>
+        <v>1.058779166162105e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103202.3410257423</v>
+        <v>133207.1913694435</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.43338276928442</v>
+        <v>84.01927851885077</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.52884102201476</v>
+        <v>114.9588835384099</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.98433408941285</v>
+        <v>103.9873690393401</v>
       </c>
       <c r="AD2" t="n">
-        <v>65433.38276928442</v>
+        <v>84019.27851885077</v>
       </c>
       <c r="AE2" t="n">
-        <v>89528.84102201476</v>
+        <v>114958.8835384099</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.857021598202905e-06</v>
+        <v>1.263359968644005e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.307291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>80984.33408941285</v>
+        <v>103987.3690393401</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.52769758550922</v>
+        <v>73.90603106913954</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.28964259756378</v>
+        <v>101.1214922127331</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.86340302336517</v>
+        <v>91.4705989208809</v>
       </c>
       <c r="AD3" t="n">
-        <v>64527.69758550922</v>
+        <v>73906.03106913954</v>
       </c>
       <c r="AE3" t="n">
-        <v>88289.64259756378</v>
+        <v>101121.4922127331</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.981390683736535e-06</v>
+        <v>1.286274133598834e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.248697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>79863.40302336517</v>
+        <v>91470.5989208809</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.59180535456677</v>
+        <v>93.84874163577908</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.0597988442805</v>
+        <v>128.407988620292</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.31935488443527</v>
+        <v>116.1529104081492</v>
       </c>
       <c r="AD2" t="n">
-        <v>74591.80535456678</v>
+        <v>93848.74163577908</v>
       </c>
       <c r="AE2" t="n">
-        <v>102059.7988442805</v>
+        <v>128407.988620292</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.248355202740528e-06</v>
+        <v>1.116223057547684e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.493923611111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>92319.35488443528</v>
+        <v>116152.9104081492</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.0382678004913</v>
+        <v>76.75212154994459</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.7247155242415</v>
+        <v>105.0156387692191</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.97063741107699</v>
+        <v>94.99309359548606</v>
       </c>
       <c r="AD3" t="n">
-        <v>67038.2678004913</v>
+        <v>76752.1215499446</v>
       </c>
       <c r="AE3" t="n">
-        <v>91724.7155242415</v>
+        <v>105015.6387692191</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.93761930791103e-06</v>
+        <v>1.239355059805468e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.146701388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>82970.637411077</v>
+        <v>94993.09359548606</v>
       </c>
     </row>
   </sheetData>
